--- a/companiesDropdown.xlsx
+++ b/companiesDropdown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\upwork\elion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\upwork\jpmorgan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E01D8-A6F1-42CD-8ADD-67FE4A80745B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C57DB-3932-442E-82C1-0B43F4F1DA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,84 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Company Name</t>
   </si>
   <si>
     <t>Fund</t>
-  </si>
-  <si>
-    <t>JPMorgan Diversified Return International Equity ETF</t>
-  </si>
-  <si>
-    <t>20931</t>
-  </si>
-  <si>
-    <t>JPMorgan Diversified Return U.S. Equity ETF</t>
-  </si>
-  <si>
-    <t>21793</t>
-  </si>
-  <si>
-    <t>JPMorgan Diversified Return U.S. Mid Cap Equity ETF</t>
-  </si>
-  <si>
-    <t>21796</t>
-  </si>
-  <si>
-    <t>JPMorgan Diversified Return U.S. Small Cap Equity ETF</t>
-  </si>
-  <si>
-    <t>22423</t>
-  </si>
-  <si>
-    <t>JPMorgan Emerging Markets Debt Fund</t>
-  </si>
-  <si>
-    <t>18214</t>
-  </si>
-  <si>
-    <t>JPMorgan Emerging Markets Equity Fund</t>
-  </si>
-  <si>
-    <t>18215</t>
-  </si>
-  <si>
-    <t>JPMorgan Emerging Markets Research Enhanced Equity Fund</t>
-  </si>
-  <si>
-    <t>23851</t>
-  </si>
-  <si>
-    <t>JPMorgan Equity Focus ETF</t>
-  </si>
-  <si>
-    <t>28559</t>
-  </si>
-  <si>
-    <t>JPMorgan Equity Focus Fund</t>
-  </si>
-  <si>
-    <t>18217</t>
-  </si>
-  <si>
-    <t>JPMorgan Equity Income Fund</t>
-  </si>
-  <si>
-    <t>18310</t>
-  </si>
-  <si>
-    <t>JPMorgan Equity Index Fund</t>
-  </si>
-  <si>
-    <t>18311</t>
-  </si>
-  <si>
-    <t>JPMorgan Equity Premium Income ETF</t>
-  </si>
-  <si>
-    <t>24589</t>
   </si>
   <si>
     <t>JPMorgan Equity Premium Income Fund</t>
@@ -1222,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2258,102 +2186,6 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>258</v>
-      </c>
-      <c r="B130" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>276</v>
-      </c>
-      <c r="B139" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" t="s">
-        <v>279</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
